--- a/Document/Redmine_Plugins_Updated.xlsx
+++ b/Document/Redmine_Plugins_Updated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="90" windowWidth="18180" windowHeight="7090"/>
+    <workbookView xWindow="400" yWindow="90" windowWidth="18180" windowHeight="7090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="522">
   <si>
     <t>Primary</t>
   </si>
@@ -1579,6 +1579,9 @@
   </si>
   <si>
     <t>Customfield checkbox utility</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -1810,6 +1813,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1848,18 +1863,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2164,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2180,28 +2183,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -2213,7 +2216,7 @@
       <c r="C3" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2231,7 +2234,7 @@
       <c r="C4" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
@@ -2249,7 +2252,7 @@
       <c r="C5" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="13" t="s">
         <v>6</v>
       </c>
@@ -2267,7 +2270,7 @@
       <c r="C6" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="13" t="s">
         <v>8</v>
       </c>
@@ -2285,7 +2288,7 @@
       <c r="C7" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
@@ -2303,7 +2306,7 @@
       <c r="C8" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="13" t="s">
         <v>12</v>
       </c>
@@ -2321,7 +2324,7 @@
       <c r="C9" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="13" t="s">
         <v>15</v>
       </c>
@@ -2339,7 +2342,7 @@
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="13" t="s">
         <v>19</v>
       </c>
@@ -2357,7 +2360,7 @@
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="13" t="s">
         <v>23</v>
       </c>
@@ -2375,7 +2378,7 @@
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -2393,7 +2396,7 @@
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="13" t="s">
         <v>31</v>
       </c>
@@ -2411,7 +2414,7 @@
       <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="13" t="s">
         <v>35</v>
       </c>
@@ -2429,7 +2432,7 @@
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="13" t="s">
         <v>39</v>
       </c>
@@ -2447,7 +2450,7 @@
       <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="13" t="s">
         <v>43</v>
       </c>
@@ -2465,7 +2468,7 @@
       <c r="C17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="13" t="s">
         <v>47</v>
       </c>
@@ -2483,7 +2486,7 @@
       <c r="C18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="13" t="s">
         <v>51</v>
       </c>
@@ -2501,7 +2504,7 @@
       <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="13" t="s">
         <v>55</v>
       </c>
@@ -2519,7 +2522,7 @@
       <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="22"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="13" t="s">
         <v>59</v>
       </c>
@@ -2537,7 +2540,7 @@
       <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="13" t="s">
         <v>63</v>
       </c>
@@ -2555,7 +2558,7 @@
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="13" t="s">
         <v>67</v>
       </c>
@@ -2573,7 +2576,7 @@
       <c r="C23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="13" t="s">
         <v>71</v>
       </c>
@@ -2591,7 +2594,7 @@
       <c r="C24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="13" t="s">
         <v>75</v>
       </c>
@@ -2609,7 +2612,7 @@
       <c r="C25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="13" t="s">
         <v>79</v>
       </c>
@@ -2627,7 +2630,7 @@
       <c r="C26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="13" t="s">
         <v>83</v>
       </c>
@@ -2645,7 +2648,7 @@
       <c r="C27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="14" t="s">
         <v>107</v>
       </c>
@@ -2657,13 +2660,13 @@
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="14" t="s">
         <v>108</v>
       </c>
@@ -2681,7 +2684,7 @@
       <c r="C29" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="22"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="14" t="s">
         <v>111</v>
       </c>
@@ -2699,8 +2702,8 @@
       <c r="C30" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="31" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="18" t="s">
         <v>131</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -2717,7 +2720,7 @@
       <c r="C31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="22"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="13" t="s">
         <v>133</v>
       </c>
@@ -2735,7 +2738,7 @@
       <c r="C32" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="22"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="13" t="s">
         <v>135</v>
       </c>
@@ -2753,7 +2756,7 @@
       <c r="C33" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="14" t="s">
         <v>139</v>
       </c>
@@ -2771,7 +2774,7 @@
       <c r="C34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="22"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="14" t="s">
         <v>143</v>
       </c>
@@ -2789,7 +2792,7 @@
       <c r="C35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="14" t="s">
         <v>144</v>
       </c>
@@ -2807,8 +2810,8 @@
       <c r="C36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="31" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="18" t="s">
         <v>150</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -2825,7 +2828,7 @@
       <c r="C37" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="22"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="14" t="s">
         <v>155</v>
       </c>
@@ -2843,7 +2846,7 @@
       <c r="C38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="22"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="14" t="s">
         <v>169</v>
       </c>
@@ -2861,7 +2864,7 @@
       <c r="C39" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="22"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="14" t="s">
         <v>176</v>
       </c>
@@ -2879,7 +2882,7 @@
       <c r="C40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="22"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="14" t="s">
         <v>186</v>
       </c>
@@ -2897,7 +2900,7 @@
       <c r="C41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="14" t="s">
         <v>188</v>
       </c>
@@ -2915,7 +2918,7 @@
       <c r="C42" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="22"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="14" t="s">
         <v>192</v>
       </c>
@@ -2927,13 +2930,13 @@
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="22"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="14" t="s">
         <v>207</v>
       </c>
@@ -2951,7 +2954,7 @@
       <c r="C44" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="22"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="14" t="s">
         <v>217</v>
       </c>
@@ -2969,7 +2972,7 @@
       <c r="C45" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="22"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="14" t="s">
         <v>220</v>
       </c>
@@ -2987,7 +2990,7 @@
       <c r="C46" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="22"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="14" t="s">
         <v>230</v>
       </c>
@@ -3005,7 +3008,7 @@
       <c r="C47" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="22"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="14" t="s">
         <v>232</v>
       </c>
@@ -3023,7 +3026,7 @@
       <c r="C48" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="22"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="14" t="s">
         <v>233</v>
       </c>
@@ -3041,7 +3044,7 @@
       <c r="C49" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="22"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="14" t="s">
         <v>241</v>
       </c>
@@ -3059,7 +3062,7 @@
       <c r="C50" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="22"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="14" t="s">
         <v>281</v>
       </c>
@@ -3077,7 +3080,7 @@
       <c r="C51" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="22"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="14" t="s">
         <v>283</v>
       </c>
@@ -3095,7 +3098,7 @@
       <c r="C52" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="22"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="14" t="s">
         <v>286</v>
       </c>
@@ -3113,7 +3116,7 @@
       <c r="C53" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="22"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="14" t="s">
         <v>287</v>
       </c>
@@ -3131,7 +3134,7 @@
       <c r="C54" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="22"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="14" t="s">
         <v>297</v>
       </c>
@@ -3149,7 +3152,7 @@
       <c r="C55" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="22"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="14" t="s">
         <v>300</v>
       </c>
@@ -3167,7 +3170,7 @@
       <c r="C56" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="14" t="s">
         <v>306</v>
       </c>
@@ -3185,7 +3188,7 @@
       <c r="C57" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D57" s="22"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="14" t="s">
         <v>318</v>
       </c>
@@ -3203,7 +3206,7 @@
       <c r="C58" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D58" s="22"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="14" t="s">
         <v>319</v>
       </c>
@@ -3221,7 +3224,7 @@
       <c r="C59" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D59" s="22"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="14" t="s">
         <v>355</v>
       </c>
@@ -3239,7 +3242,7 @@
       <c r="C60" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D60" s="22"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="14" t="s">
         <v>369</v>
       </c>
@@ -3257,7 +3260,7 @@
       <c r="C61" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="22"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="14" t="s">
         <v>383</v>
       </c>
@@ -3275,7 +3278,7 @@
       <c r="C62" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D62" s="22"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="14" t="s">
         <v>391</v>
       </c>
@@ -3293,7 +3296,7 @@
       <c r="C63" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D63" s="22"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="13" t="s">
         <v>393</v>
       </c>
@@ -3311,7 +3314,7 @@
       <c r="C64" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D64" s="22"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="14" t="s">
         <v>395</v>
       </c>
@@ -3329,7 +3332,7 @@
       <c r="C65" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D65" s="22"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="14" t="s">
         <v>397</v>
       </c>
@@ -3347,7 +3350,7 @@
       <c r="C66" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="22"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="14" t="s">
         <v>400</v>
       </c>
@@ -3365,7 +3368,7 @@
       <c r="C67" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D67" s="22"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="14" t="s">
         <v>415</v>
       </c>
@@ -3383,7 +3386,7 @@
       <c r="C68" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D68" s="22"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="14" t="s">
         <v>421</v>
       </c>
@@ -3395,13 +3398,13 @@
       <c r="A69" s="2">
         <v>67</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="15" t="s">
         <v>200</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D69" s="22"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="14" t="s">
         <v>431</v>
       </c>
@@ -3413,13 +3416,13 @@
       <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="15" t="s">
         <v>202</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D70" s="22"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="14" t="s">
         <v>443</v>
       </c>
@@ -3431,13 +3434,13 @@
       <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="15" t="s">
         <v>204</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D71" s="22"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="14" t="s">
         <v>467</v>
       </c>
@@ -3449,13 +3452,13 @@
       <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="15" t="s">
         <v>205</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D72" s="22"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="14" t="s">
         <v>486</v>
       </c>
@@ -3473,7 +3476,7 @@
       <c r="C73" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D73" s="22"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="14" t="s">
         <v>504</v>
       </c>
@@ -3491,9 +3494,9 @@
       <c r="C74" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="25"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="29"/>
     </row>
     <row r="75" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
@@ -3505,9 +3508,9 @@
       <c r="C75" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="27"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="31"/>
     </row>
     <row r="76" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
@@ -3519,9 +3522,9 @@
       <c r="C76" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="27"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="31"/>
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
@@ -3533,9 +3536,9 @@
       <c r="C77" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="27"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="31"/>
     </row>
     <row r="78" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
@@ -3547,9 +3550,9 @@
       <c r="C78" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="27"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="31"/>
     </row>
     <row r="79" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
@@ -3561,9 +3564,9 @@
       <c r="C79" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="27"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="31"/>
     </row>
     <row r="80" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
@@ -3575,51 +3578,51 @@
       <c r="C80" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="27"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="31"/>
     </row>
     <row r="81" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>79</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="15" t="s">
         <v>236</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="27"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="31"/>
     </row>
     <row r="82" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>80</v>
       </c>
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="15" t="s">
         <v>238</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="27"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="31"/>
     </row>
     <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>81</v>
       </c>
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="15" t="s">
         <v>239</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="27"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="31"/>
     </row>
     <row r="84" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
@@ -3631,9 +3634,9 @@
       <c r="C84" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="27"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="31"/>
     </row>
     <row r="85" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
@@ -3645,9 +3648,9 @@
       <c r="C85" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="27"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="31"/>
     </row>
     <row r="86" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
@@ -3659,9 +3662,9 @@
       <c r="C86" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="27"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="31"/>
     </row>
     <row r="87" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
@@ -3673,9 +3676,9 @@
       <c r="C87" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="27"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="31"/>
     </row>
     <row r="88" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
@@ -3687,9 +3690,9 @@
       <c r="C88" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="27"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="31"/>
     </row>
     <row r="89" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
@@ -3701,9 +3704,9 @@
       <c r="C89" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="27"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="31"/>
     </row>
     <row r="90" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
@@ -3715,9 +3718,9 @@
       <c r="C90" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="27"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="31"/>
     </row>
     <row r="91" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
@@ -3729,9 +3732,9 @@
       <c r="C91" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="27"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="31"/>
     </row>
     <row r="92" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
@@ -3743,9 +3746,9 @@
       <c r="C92" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="27"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="31"/>
     </row>
     <row r="93" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
@@ -3757,9 +3760,9 @@
       <c r="C93" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="27"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="31"/>
     </row>
     <row r="94" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
@@ -3771,9 +3774,9 @@
       <c r="C94" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D94" s="22"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="27"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="31"/>
     </row>
     <row r="95" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
@@ -3785,9 +3788,9 @@
       <c r="C95" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D95" s="22"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="27"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="31"/>
     </row>
     <row r="96" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
@@ -3799,9 +3802,9 @@
       <c r="C96" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D96" s="22"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="27"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="31"/>
     </row>
     <row r="97" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
@@ -3813,9 +3816,9 @@
       <c r="C97" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D97" s="22"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="27"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="31"/>
     </row>
     <row r="98" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
@@ -3827,9 +3830,9 @@
       <c r="C98" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D98" s="22"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="27"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="31"/>
     </row>
     <row r="99" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
@@ -3841,9 +3844,9 @@
       <c r="C99" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D99" s="22"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="27"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="31"/>
     </row>
     <row r="100" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
@@ -3855,9 +3858,9 @@
       <c r="C100" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D100" s="22"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="27"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="31"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
@@ -3869,9 +3872,9 @@
       <c r="C101" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D101" s="22"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="27"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="31"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
@@ -3883,9 +3886,9 @@
       <c r="C102" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D102" s="22"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="27"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="31"/>
     </row>
     <row r="103" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
@@ -3897,9 +3900,9 @@
       <c r="C103" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D103" s="22"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="27"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="31"/>
     </row>
     <row r="104" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
@@ -3911,9 +3914,9 @@
       <c r="C104" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D104" s="22"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="27"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="31"/>
     </row>
     <row r="105" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
@@ -3925,9 +3928,9 @@
       <c r="C105" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="27"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="31"/>
     </row>
     <row r="106" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
@@ -3939,9 +3942,9 @@
       <c r="C106" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D106" s="22"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="27"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="31"/>
     </row>
     <row r="107" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
@@ -3953,9 +3956,9 @@
       <c r="C107" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D107" s="22"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="27"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="31"/>
     </row>
     <row r="108" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
@@ -3967,9 +3970,9 @@
       <c r="C108" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D108" s="22"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="27"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="31"/>
     </row>
     <row r="109" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
@@ -3981,9 +3984,9 @@
       <c r="C109" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D109" s="22"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="27"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="31"/>
     </row>
     <row r="110" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
@@ -3995,9 +3998,9 @@
       <c r="C110" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D110" s="22"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="27"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="31"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
@@ -4009,9 +4012,9 @@
       <c r="C111" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D111" s="22"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="27"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
@@ -4023,37 +4026,37 @@
       <c r="C112" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D112" s="22"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="27"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="31"/>
     </row>
     <row r="113" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>111</v>
       </c>
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="15" t="s">
         <v>315</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D113" s="22"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="27"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="31"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>112</v>
       </c>
-      <c r="B114" s="28" t="s">
+      <c r="B114" s="15" t="s">
         <v>321</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D114" s="22"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="27"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="31"/>
     </row>
     <row r="115" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
@@ -4065,9 +4068,9 @@
       <c r="C115" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D115" s="22"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="27"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="31"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
@@ -4079,9 +4082,9 @@
       <c r="C116" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D116" s="22"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="27"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="31"/>
     </row>
     <row r="117" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
@@ -4093,9 +4096,9 @@
       <c r="C117" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D117" s="22"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="27"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="31"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
@@ -4107,9 +4110,9 @@
       <c r="C118" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D118" s="22"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="27"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="31"/>
     </row>
     <row r="119" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
@@ -4118,12 +4121,12 @@
       <c r="B119" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="C119" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="D119" s="22"/>
-      <c r="E119" s="26"/>
-      <c r="F119" s="27"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="31"/>
     </row>
     <row r="120" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
@@ -4135,9 +4138,9 @@
       <c r="C120" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D120" s="22"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="27"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
@@ -4149,9 +4152,9 @@
       <c r="C121" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D121" s="22"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="27"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="31"/>
     </row>
     <row r="122" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
@@ -4163,9 +4166,9 @@
       <c r="C122" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D122" s="22"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="27"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="31"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
@@ -4177,9 +4180,9 @@
       <c r="C123" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D123" s="22"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="27"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="31"/>
     </row>
     <row r="124" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
@@ -4191,9 +4194,9 @@
       <c r="C124" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D124" s="22"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="27"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="31"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
@@ -4205,9 +4208,9 @@
       <c r="C125" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D125" s="22"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="27"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="31"/>
     </row>
     <row r="126" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
@@ -4219,9 +4222,9 @@
       <c r="C126" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D126" s="22"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="27"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="31"/>
     </row>
     <row r="127" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
@@ -4233,23 +4236,23 @@
       <c r="C127" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D127" s="22"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="27"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="31"/>
     </row>
     <row r="128" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>126</v>
       </c>
-      <c r="B128" s="28" t="s">
+      <c r="B128" s="15" t="s">
         <v>348</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D128" s="22"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="27"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="31"/>
     </row>
     <row r="129" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
@@ -4261,9 +4264,9 @@
       <c r="C129" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D129" s="22"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="27"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="31"/>
     </row>
     <row r="130" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
@@ -4275,9 +4278,9 @@
       <c r="C130" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D130" s="22"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="27"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="31"/>
     </row>
     <row r="131" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
@@ -4289,9 +4292,9 @@
       <c r="C131" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D131" s="22"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="27"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="31"/>
     </row>
     <row r="132" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
@@ -4303,9 +4306,9 @@
       <c r="C132" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D132" s="22"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="27"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="31"/>
     </row>
     <row r="133" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
@@ -4317,9 +4320,9 @@
       <c r="C133" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D133" s="22"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="27"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="31"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
@@ -4331,9 +4334,9 @@
       <c r="C134" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D134" s="22"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="27"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="31"/>
     </row>
     <row r="135" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
@@ -4345,9 +4348,9 @@
       <c r="C135" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D135" s="22"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="27"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="31"/>
     </row>
     <row r="136" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
@@ -4359,9 +4362,9 @@
       <c r="C136" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D136" s="22"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="27"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="31"/>
     </row>
     <row r="137" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
@@ -4370,12 +4373,12 @@
       <c r="B137" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C137" s="29" t="s">
+      <c r="C137" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="D137" s="22"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="27"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="31"/>
     </row>
     <row r="138" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
@@ -4387,9 +4390,9 @@
       <c r="C138" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D138" s="22"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="27"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="31"/>
     </row>
     <row r="139" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
@@ -4401,9 +4404,9 @@
       <c r="C139" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D139" s="22"/>
-      <c r="E139" s="26"/>
-      <c r="F139" s="27"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="31"/>
     </row>
     <row r="140" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
@@ -4415,9 +4418,9 @@
       <c r="C140" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D140" s="22"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="27"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="31"/>
     </row>
     <row r="141" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
@@ -4429,9 +4432,9 @@
       <c r="C141" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D141" s="22"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="27"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="31"/>
     </row>
     <row r="142" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
@@ -4443,9 +4446,9 @@
       <c r="C142" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D142" s="22"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="27"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="31"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
@@ -4457,9 +4460,9 @@
       <c r="C143" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D143" s="22"/>
-      <c r="E143" s="26"/>
-      <c r="F143" s="27"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="31"/>
     </row>
     <row r="144" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
@@ -4471,9 +4474,9 @@
       <c r="C144" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D144" s="22"/>
-      <c r="E144" s="26"/>
-      <c r="F144" s="27"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="31"/>
     </row>
     <row r="145" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
@@ -4485,9 +4488,9 @@
       <c r="C145" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D145" s="22"/>
-      <c r="E145" s="26"/>
-      <c r="F145" s="27"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="31"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
@@ -4499,9 +4502,9 @@
       <c r="C146" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D146" s="22"/>
-      <c r="E146" s="26"/>
-      <c r="F146" s="27"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="31"/>
     </row>
     <row r="147" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
@@ -4513,9 +4516,9 @@
       <c r="C147" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D147" s="22"/>
-      <c r="E147" s="26"/>
-      <c r="F147" s="27"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="31"/>
     </row>
     <row r="148" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
@@ -4527,9 +4530,9 @@
       <c r="C148" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D148" s="22"/>
-      <c r="E148" s="26"/>
-      <c r="F148" s="27"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="31"/>
     </row>
     <row r="149" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
@@ -4541,9 +4544,9 @@
       <c r="C149" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D149" s="22"/>
-      <c r="E149" s="26"/>
-      <c r="F149" s="27"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="31"/>
     </row>
     <row r="150" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
@@ -4555,9 +4558,9 @@
       <c r="C150" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D150" s="22"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="27"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="31"/>
     </row>
     <row r="151" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
@@ -4569,9 +4572,9 @@
       <c r="C151" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D151" s="22"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="27"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="31"/>
     </row>
     <row r="152" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
@@ -4583,9 +4586,9 @@
       <c r="C152" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D152" s="22"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="27"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="31"/>
     </row>
     <row r="153" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
@@ -4597,9 +4600,9 @@
       <c r="C153" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D153" s="22"/>
-      <c r="E153" s="26"/>
-      <c r="F153" s="27"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="31"/>
     </row>
     <row r="154" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
@@ -4611,9 +4614,9 @@
       <c r="C154" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D154" s="22"/>
-      <c r="E154" s="26"/>
-      <c r="F154" s="27"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="31"/>
     </row>
     <row r="155" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
@@ -4625,9 +4628,9 @@
       <c r="C155" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D155" s="22"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="27"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="31"/>
     </row>
     <row r="156" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
@@ -4639,9 +4642,9 @@
       <c r="C156" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D156" s="22"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="27"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="31"/>
     </row>
     <row r="157" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
@@ -4653,9 +4656,9 @@
       <c r="C157" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D157" s="22"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="27"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="31"/>
     </row>
     <row r="158" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
@@ -4667,9 +4670,9 @@
       <c r="C158" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D158" s="22"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="27"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="31"/>
     </row>
     <row r="159" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
@@ -4681,9 +4684,9 @@
       <c r="C159" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D159" s="22"/>
-      <c r="E159" s="26"/>
-      <c r="F159" s="27"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="31"/>
     </row>
     <row r="160" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
@@ -4695,9 +4698,9 @@
       <c r="C160" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D160" s="22"/>
-      <c r="E160" s="26"/>
-      <c r="F160" s="27"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="31"/>
     </row>
     <row r="161" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
@@ -4709,9 +4712,9 @@
       <c r="C161" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D161" s="22"/>
-      <c r="E161" s="26"/>
-      <c r="F161" s="27"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="31"/>
     </row>
     <row r="162" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
@@ -4723,9 +4726,9 @@
       <c r="C162" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D162" s="22"/>
-      <c r="E162" s="26"/>
-      <c r="F162" s="27"/>
+      <c r="D162" s="26"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="31"/>
     </row>
     <row r="163" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
@@ -4737,9 +4740,9 @@
       <c r="C163" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="D163" s="22"/>
-      <c r="E163" s="26"/>
-      <c r="F163" s="27"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="31"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
@@ -4751,9 +4754,9 @@
       <c r="C164" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D164" s="22"/>
-      <c r="E164" s="26"/>
-      <c r="F164" s="27"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="31"/>
     </row>
     <row r="165" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
@@ -4765,9 +4768,9 @@
       <c r="C165" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D165" s="22"/>
-      <c r="E165" s="26"/>
-      <c r="F165" s="27"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="31"/>
     </row>
     <row r="166" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
@@ -4779,9 +4782,9 @@
       <c r="C166" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D166" s="22"/>
-      <c r="E166" s="26"/>
-      <c r="F166" s="27"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="31"/>
     </row>
     <row r="167" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
@@ -4793,9 +4796,9 @@
       <c r="C167" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D167" s="22"/>
-      <c r="E167" s="26"/>
-      <c r="F167" s="27"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="31"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
@@ -4807,9 +4810,9 @@
       <c r="C168" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D168" s="22"/>
-      <c r="E168" s="26"/>
-      <c r="F168" s="27"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="30"/>
+      <c r="F168" s="31"/>
     </row>
     <row r="169" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
@@ -4821,9 +4824,9 @@
       <c r="C169" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D169" s="22"/>
-      <c r="E169" s="26"/>
-      <c r="F169" s="27"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="31"/>
     </row>
     <row r="170" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
@@ -4835,9 +4838,9 @@
       <c r="C170" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D170" s="22"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="27"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="31"/>
     </row>
     <row r="171" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
@@ -4849,9 +4852,9 @@
       <c r="C171" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D171" s="22"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="27"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="31"/>
     </row>
     <row r="172" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
@@ -4863,9 +4866,9 @@
       <c r="C172" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D172" s="22"/>
-      <c r="E172" s="26"/>
-      <c r="F172" s="27"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="31"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
@@ -4877,9 +4880,9 @@
       <c r="C173" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D173" s="22"/>
-      <c r="E173" s="26"/>
-      <c r="F173" s="27"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="31"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
@@ -4891,9 +4894,9 @@
       <c r="C174" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D174" s="22"/>
-      <c r="E174" s="26"/>
-      <c r="F174" s="27"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="31"/>
     </row>
     <row r="175" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
@@ -4905,9 +4908,9 @@
       <c r="C175" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D175" s="22"/>
-      <c r="E175" s="26"/>
-      <c r="F175" s="27"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
@@ -4919,9 +4922,9 @@
       <c r="C176" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D176" s="22"/>
-      <c r="E176" s="26"/>
-      <c r="F176" s="27"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="31"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
@@ -4933,9 +4936,9 @@
       <c r="C177" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D177" s="22"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="27"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="31"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
@@ -4947,9 +4950,9 @@
       <c r="C178" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D178" s="22"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="27"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="31"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
@@ -4961,9 +4964,9 @@
       <c r="C179" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D179" s="22"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="27"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="31"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
@@ -4975,23 +4978,23 @@
       <c r="C180" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="D180" s="22"/>
-      <c r="E180" s="26"/>
-      <c r="F180" s="27"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="31"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>179</v>
       </c>
-      <c r="B181" s="28" t="s">
+      <c r="B181" s="15" t="s">
         <v>483</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D181" s="22"/>
-      <c r="E181" s="26"/>
-      <c r="F181" s="27"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="31"/>
     </row>
     <row r="182" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
@@ -5003,9 +5006,9 @@
       <c r="C182" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D182" s="22"/>
-      <c r="E182" s="26"/>
-      <c r="F182" s="27"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="31"/>
     </row>
     <row r="183" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
@@ -5017,9 +5020,9 @@
       <c r="C183" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="D183" s="22"/>
-      <c r="E183" s="26"/>
-      <c r="F183" s="27"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="30"/>
+      <c r="F183" s="31"/>
     </row>
     <row r="184" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
@@ -5031,9 +5034,9 @@
       <c r="C184" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="D184" s="22"/>
-      <c r="E184" s="26"/>
-      <c r="F184" s="27"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="30"/>
+      <c r="F184" s="31"/>
     </row>
     <row r="185" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
@@ -5045,9 +5048,9 @@
       <c r="C185" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D185" s="22"/>
-      <c r="E185" s="26"/>
-      <c r="F185" s="27"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="30"/>
+      <c r="F185" s="31"/>
     </row>
     <row r="186" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
@@ -5059,9 +5062,9 @@
       <c r="C186" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D186" s="22"/>
-      <c r="E186" s="26"/>
-      <c r="F186" s="27"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="30"/>
+      <c r="F186" s="31"/>
     </row>
     <row r="187" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
@@ -5073,9 +5076,9 @@
       <c r="C187" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="D187" s="22"/>
-      <c r="E187" s="26"/>
-      <c r="F187" s="27"/>
+      <c r="D187" s="26"/>
+      <c r="E187" s="30"/>
+      <c r="F187" s="31"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
@@ -5087,23 +5090,23 @@
       <c r="C188" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D188" s="22"/>
-      <c r="E188" s="26"/>
-      <c r="F188" s="27"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="30"/>
+      <c r="F188" s="31"/>
     </row>
     <row r="189" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>187</v>
       </c>
-      <c r="B189" s="28" t="s">
+      <c r="B189" s="15" t="s">
         <v>501</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="D189" s="22"/>
-      <c r="E189" s="26"/>
-      <c r="F189" s="27"/>
+      <c r="D189" s="26"/>
+      <c r="E189" s="30"/>
+      <c r="F189" s="31"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
@@ -5115,9 +5118,9 @@
       <c r="C190" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="D190" s="23"/>
-      <c r="E190" s="26"/>
-      <c r="F190" s="27"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="30"/>
+      <c r="F190" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5137,10 +5140,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
